--- a/Stan344/Lection 5/Exercises_Lection5.xlsx
+++ b/Stan344/Lection 5/Exercises_Lection5.xlsx
@@ -94,9 +94,6 @@
     <t>1. Enter Main page</t>
   </si>
   <si>
-    <t>2. Press the Women tab located below the main site logo</t>
-  </si>
-  <si>
     <t>3.Locate "Faded Short Sleeve T-shirts"</t>
   </si>
   <si>
@@ -142,12 +139,6 @@
     <t xml:space="preserve">2. Click on Cart button </t>
   </si>
   <si>
-    <t>3.Enter Shopping-cart summary</t>
-  </si>
-  <si>
-    <t>4.Press the delete option</t>
-  </si>
-  <si>
     <t>4.Confirm message</t>
   </si>
   <si>
@@ -169,9 +160,6 @@
     <t>See Site Logo "Your Logo", search bar and "Sign in" options</t>
   </si>
   <si>
-    <t>Add an item into cart</t>
-  </si>
-  <si>
     <t>4.Press "Add to cart"</t>
   </si>
   <si>
@@ -179,6 +167,18 @@
   </si>
   <si>
     <t>See "Cart (empty)" in upper right corner of the screen</t>
+  </si>
+  <si>
+    <t>3.Enter Shopping-cart summary section</t>
+  </si>
+  <si>
+    <t>4.Press the delete button</t>
+  </si>
+  <si>
+    <t>Add an item to cart</t>
+  </si>
+  <si>
+    <t>2. Press the Women tab</t>
   </si>
 </sst>
 </file>
@@ -298,15 +298,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -610,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,7 +657,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,7 +671,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -691,10 +691,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="11"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -706,16 +706,16 @@
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B14" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="B14" s="11"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>50</v>
+      <c r="A15" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -755,7 +755,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -789,10 +789,10 @@
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="15"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -808,38 +808,38 @@
       </c>
       <c r="B29" s="5"/>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B30" s="5"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B32" s="5"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="B34" s="10" t="s">
         <v>29</v>
-      </c>
-      <c r="B34" s="10" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="11" t="s">
+      <c r="A45" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B45" s="11"/>
+      <c r="B45" s="15"/>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -923,22 +923,22 @@
     </row>
     <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B47" s="5"/>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B48" s="5"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>2</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -975,7 +975,7 @@
         <v>3</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -983,7 +983,7 @@
         <v>5</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,10 +1009,10 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="11" t="s">
+      <c r="A62" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="B62" s="11"/>
+      <c r="B62" s="15"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -1024,42 +1024,42 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B64" s="5"/>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65" s="5"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B66" s="5"/>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B67" s="5"/>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
